--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-625622.2413728378</v>
+        <v>-627509.8228892398</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>223.8478066009092</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>98.04824254667801</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.65219787465514</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.13811946581988</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>39.32476976423418</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>128.6652719985049</v>
+        <v>68.25327490405915</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>341.2009651476508</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>213.3057743961292</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>281.6126679114866</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>196.7218456862863</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>111.8508996147461</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274142</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>118.4898845065119</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>144.636469817427</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,10 +1901,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>104.8708820236314</v>
       </c>
       <c r="V19" t="n">
-        <v>168.0440194998704</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>73.01852064932181</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>206.8064269214864</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>210.9685212521342</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>1.341035737737641</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>6.749002612117666</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700203</v>
@@ -3013,7 +3013,7 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235377</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,10 +3244,10 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1376.372217881286</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>494.099734680799</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.620445413572</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1602.48111343776</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4434,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>344.9043780966903</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>344.9043780966903</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>196.9912845142971</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>196.9912845142971</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>196.9912845142971</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>196.9912845142971</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>60.6623736129454</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2652.565131961839</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2476.387644276009</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2476.387644276009</v>
       </c>
       <c r="U5" t="n">
-        <v>2481.24961367155</v>
+        <v>2476.387644276009</v>
       </c>
       <c r="V5" t="n">
-        <v>2150.18672632798</v>
+        <v>2476.387644276009</v>
       </c>
       <c r="W5" t="n">
-        <v>2150.18672632798</v>
+        <v>2123.618989005894</v>
       </c>
       <c r="X5" t="n">
-        <v>2150.18672632798</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y5" t="n">
-        <v>2150.18672632798</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8558756644252</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C7" t="n">
-        <v>370.8558756644252</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750362</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>370.8558756644252</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.8558756644252</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1271.984870679801</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C8" t="n">
-        <v>1271.984870679801</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>1271.984870679801</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>886.1966180815571</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>879.2511173323536</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2250.482535684977</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.124202655613</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="Y8" t="n">
-        <v>1271.984870679801</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>443.6717438918015</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>443.6717438918015</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>443.6717438918015</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510.73244600624</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>510.73244600624</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>360.6158065939043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>360.6158065939043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557899</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557899</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771458</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771458</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344971</v>
+        <v>241.9805482336709</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364798</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>692.3809108364798</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5364,7 +5364,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.9038434870656</v>
+        <v>881.7531914306747</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1352.818826297875</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1352.818826297875</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1352.818826297875</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655736</v>
+        <v>1352.818826297875</v>
       </c>
       <c r="W16" t="n">
-        <v>665.685973528613</v>
+        <v>1063.401656260914</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305957</v>
+        <v>1063.401656260914</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.9038434870656</v>
+        <v>1063.401656260914</v>
       </c>
     </row>
     <row r="17">
@@ -5510,43 +5510,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1503.408902298184</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.5481934947356</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C19" t="n">
-        <v>395.5481934947356</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D19" t="n">
-        <v>395.5481934947356</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765189</v>
+        <v>1392.986086695649</v>
       </c>
       <c r="V19" t="n">
-        <v>616.3407726382658</v>
+        <v>1392.986086695649</v>
       </c>
       <c r="W19" t="n">
-        <v>616.3407726382658</v>
+        <v>1103.568916658688</v>
       </c>
       <c r="X19" t="n">
-        <v>616.3407726382658</v>
+        <v>1103.568916658688</v>
       </c>
       <c r="Y19" t="n">
-        <v>395.5481934947356</v>
+        <v>882.7763375151577</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5747,16 +5747,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>321.391181376304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347409</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141522</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>731.029197104561</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>503.0396462065437</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>503.0396462065437</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,10 +5999,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6054,19 +6054,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,40 +6236,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>531.1091870201133</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>318.009670603816</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,7 +6452,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,25 +6464,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110228</v>
+        <v>565.4200295030872</v>
       </c>
       <c r="C31" t="n">
-        <v>381.6713504644867</v>
+        <v>452.244711856551</v>
       </c>
       <c r="D31" t="n">
-        <v>287.3155763335218</v>
+        <v>357.8889377255861</v>
       </c>
       <c r="E31" t="n">
-        <v>195.1633480324995</v>
+        <v>356.5343561723157</v>
       </c>
       <c r="F31" t="n">
-        <v>104.0342658159603</v>
+        <v>265.4052739557761</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864669</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386975</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>785.765981522051</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598917</v>
+        <v>565.4200295030872</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,40 +6710,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,13 +6871,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,13 +6926,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6944,43 +6944,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083202</v>
@@ -7084,22 +7084,22 @@
         <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7418,19 +7418,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,19 +7491,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083204</v>
@@ -7561,16 +7561,16 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649689</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525404</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>277.6717966208054</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928342</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>33.57014840818513</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,22 +23464,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>48.75693659211592</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>53.28434016617626</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,19 +23938,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>181.366470374946</v>
       </c>
       <c r="V19" t="n">
-        <v>84.09362382395756</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>94.22830044930602</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338542</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>79.43092547709095</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>14.74113413690293</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>89.88967028027447</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>104.5413092227028</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571486</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523566</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="D2" t="n">
         <v>205260.4424660708</v>
@@ -26323,22 +26323,22 @@
         <v>195514.5298688544</v>
       </c>
       <c r="F2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="G2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="H2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="I2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="J2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="K2" t="n">
-        <v>203411.0686726354</v>
+        <v>203411.0686726353</v>
       </c>
       <c r="L2" t="n">
         <v>205260.4424660711</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284557</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086682</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="C4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="C4" t="n">
-        <v>147917.0487159208</v>
-      </c>
-      <c r="D4" t="n">
-        <v>147917.0487159209</v>
-      </c>
       <c r="E4" t="n">
-        <v>7916.731656007447</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007452</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007458</v>
+        <v>7916.7316560075</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007458</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007414</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
         <v>26081.35417020403</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.5188973279</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732795</v>
-      </c>
-      <c r="M4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732795</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26470,37 +26470,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-615483.563527804</v>
       </c>
       <c r="C6" t="n">
-        <v>-25515.68431325954</v>
+        <v>-25515.68431325944</v>
       </c>
       <c r="D6" t="n">
-        <v>-25515.68431325952</v>
+        <v>-25515.68431325947</v>
       </c>
       <c r="E6" t="n">
-        <v>-429549.5642127658</v>
+        <v>-429647.023338738</v>
       </c>
       <c r="F6" t="n">
-        <v>95610.4722641304</v>
+        <v>95513.0131381581</v>
       </c>
       <c r="G6" t="n">
-        <v>95610.47226413021</v>
+        <v>95513.01313815807</v>
       </c>
       <c r="H6" t="n">
-        <v>95610.47226413035</v>
+        <v>95513.01313815816</v>
       </c>
       <c r="I6" t="n">
-        <v>95610.47226413032</v>
+        <v>95513.01313815794</v>
       </c>
       <c r="J6" t="n">
-        <v>-80812.74692846261</v>
+        <v>-80910.20605443494</v>
       </c>
       <c r="K6" t="n">
-        <v>36538.90066936301</v>
+        <v>36520.40693142847</v>
       </c>
       <c r="L6" t="n">
-        <v>66866.91094785098</v>
+        <v>66866.91094785088</v>
       </c>
       <c r="M6" t="n">
-        <v>-57591.19748511937</v>
+        <v>-57591.19748511945</v>
       </c>
       <c r="N6" t="n">
-        <v>77209.8177487178</v>
+        <v>77209.81774871772</v>
       </c>
       <c r="O6" t="n">
-        <v>77209.81774871777</v>
+        <v>77209.81774871775</v>
       </c>
       <c r="P6" t="n">
-        <v>33047.21244587204</v>
+        <v>33047.21244587217</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,46 +26735,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108361</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,19 +26966,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158.8860350625714</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>308.8278031950334</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,10 +27433,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>38.54776131388185</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>10.34028310899182</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>211.8993977440551</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>97.04438339053226</v>
+        <v>157.456380484978</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>72.58320487314415</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>3.142545961528583</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>4.669206330491136</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>89.80115265030474</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-2.755762482301597e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28621,10 +28621,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,16 +35495,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187199</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>526.9295015768298</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
